--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -44,25 +44,85 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
     <t>7:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Thursday, 4 September, 2025 9:47 AM</t>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 4 September, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +784,203 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>201.91999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +994,35 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:33 AM</t>
+    <t>Thursday, 4 September, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -98,22 +110,49 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
     <t>30:0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -862,7 +901,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -872,11 +911,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -888,7 +927,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -905,11 +944,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -921,66 +960,198 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>201.91999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>34</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>47</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>39</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>273.92000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1190,30 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:34 AM</t>
+    <t>Thursday, 4 September, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -110,6 +122,27 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -119,6 +152,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -161,7 +203,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:40 AM</t>
+    <t>Thursday, 4 September, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,7 +976,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -944,11 +986,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -960,7 +1002,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -977,11 +1019,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -993,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1010,14 +1052,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,28 +1068,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1059,28 +1101,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1092,20 +1134,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1120,38 +1162,170 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>273.92000000000002</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>45</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>52</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>53</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>57</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>53</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>53</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>586.25999999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1384,30 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -44,24 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>41.00</t>
   </si>
   <si>
     <t>41.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -74,9 +101,6 @@
     <t>7.9200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -143,6 +167,21 @@
     <t>7.5000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -164,6 +203,30 @@
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -179,6 +242,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -203,7 +275,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:47 AM</t>
+    <t>Thursday, 4 September, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -927,7 +999,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -993,7 +1065,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1009,7 +1081,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,14 +1091,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1035,14 +1107,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,11 +1124,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1068,14 +1140,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,14 +1157,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,11 +1190,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1134,14 +1206,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,14 +1223,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1167,14 +1239,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,14 +1256,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1200,31 +1272,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,31 +1305,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,66 +1338,264 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>586.25999999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>64</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>69</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>74</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>23</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>74</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>66</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>74</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>82</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>85</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>74</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>86</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>786.11000000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>88</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>89</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>90</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1674,40 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>1:0</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
   </si>
   <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
@@ -999,7 +1011,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1032,7 +1044,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1065,7 +1077,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1147,7 +1159,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1157,11 +1169,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1173,14 +1185,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1197,7 +1209,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1213,7 +1225,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1263,7 +1275,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1296,7 +1308,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1305,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,11 +1334,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1355,11 +1367,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1371,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1388,11 +1400,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1428,7 +1440,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1450,18 +1462,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1470,31 +1482,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,20 +1515,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1527,7 +1539,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1549,7 +1561,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1564,38 +1576,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>786.11000000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>88</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>89</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>78</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>90</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>812.84000000000003</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>92</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>93</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>94</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1704,10 +1749,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:52 AM</t>
+    <t>Thursday, 4 September, 2025 12:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -65,42 +65,45 @@
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>49.00</t>
   </si>
   <si>
-    <t>49.0000</t>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BRIMOSALM EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>13.00</t>
   </si>
   <si>
@@ -218,9 +218,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -287,7 +284,10 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 12:01 PM</t>
+    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
+  </si>
+  <si>
+    <t>Thursday, 4 September, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1044,7 +1044,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1053,14 +1053,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1070,11 +1070,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1086,14 +1086,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1110,7 +1110,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1143,7 +1143,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1176,7 +1176,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1209,7 +1209,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1275,7 +1275,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1341,7 +1341,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1357,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1374,7 +1374,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1407,7 +1407,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1423,7 +1423,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1433,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1449,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>60</v>
@@ -1482,31 +1482,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1528,18 +1528,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,31 +1548,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,66 +1581,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>91</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>812.84000000000003</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>77</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>78</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>886.84000000000003</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>92</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
         <v>93</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
         <v>94</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1754,10 +1787,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -224,6 +224,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
@@ -236,15 +248,21 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
     <t>22:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -287,7 +305,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 12:19 PM</t>
+    <t>Thursday, 4 September, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,13 +1474,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1473,7 +1491,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1495,18 +1513,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1515,7 +1533,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1528,18 +1546,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,28 +1566,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -1581,31 +1599,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1614,66 +1632,132 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>886.84000000000003</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>92</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>93</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>94</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>72</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>95</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>21</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>72</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>84</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1070.8399999999999</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1792,10 +1876,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>98.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>41.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -257,6 +266,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8324:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -278,6 +299,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -305,7 +335,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 12:35 PM</t>
+    <t>Thursday, 4 September, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1029,7 +1059,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1062,7 +1092,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1071,14 +1101,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1088,14 +1118,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1104,14 +1134,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,7 +1158,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1144,7 +1174,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1184,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1200,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1187,14 +1217,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1233,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1227,7 +1257,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1243,7 +1273,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1283,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1299,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1293,7 +1323,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1309,7 +1339,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,14 +1349,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,14 +1365,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1375,7 +1405,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1392,7 +1422,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1408,7 +1438,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,14 +1448,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1434,14 +1464,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,14 +1481,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,24 +1504,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,31 +1530,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1557,7 +1587,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1573,24 +1603,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,20 +1629,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1623,7 +1653,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1645,7 +1675,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1656,7 +1686,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1672,24 +1702,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,66 +1728,165 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1070.8399999999999</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>75</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>104</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>75</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>105</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>107</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>75</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>91</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1164.8399999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>109</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>110</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +2015,25 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
     <t>6:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -101,6 +116,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -146,15 +170,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
     <t>7:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -212,6 +239,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
     <t>HERO BABY 1 MILK 400 GM</t>
   </si>
   <si>
@@ -221,6 +257,27 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -236,12 +293,6 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -257,6 +308,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
@@ -290,6 +353,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>62:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -299,6 +374,9 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -326,16 +404,31 @@
     <t>30:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 1:03 PM</t>
+    <t>Thursday, 4 September, 2025 1:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1059,7 +1152,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1068,14 +1161,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1085,14 +1178,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1101,14 +1194,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1118,11 +1211,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1134,14 +1227,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1158,7 +1251,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,7 +1267,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1184,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1200,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1217,11 +1310,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1233,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1257,7 +1350,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1273,7 +1366,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,14 +1376,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,14 +1392,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1320,10 +1413,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1332,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1349,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,11 +1508,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1431,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,14 +1541,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1464,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1497,14 +1590,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,31 +1623,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1587,7 +1680,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1603,7 +1696,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1620,7 +1713,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1636,13 +1729,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1653,7 +1746,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1669,24 +1762,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,31 +1788,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,31 +1821,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,31 +1854,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1794,31 +1887,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1827,66 +1920,429 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1164.8399999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>106</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>107</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c t="s" r="Q34" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>111</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>86</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>112</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>114</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>115</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>86</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>116</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>118</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>39</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>86</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>119</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>39</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>86</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>119</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>123</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>86</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>126</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>86</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>127</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>130</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>86</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>116</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>39</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>86</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>132</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>135</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>86</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>136</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>23</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>86</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>112</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1611.54</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2030,10 +2486,65 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -428,7 +428,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 1:06 PM</t>
+    <t>Thursday, 4 September, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -293,7 +305,7 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
-    <t>120.0000</t>
+    <t>240.0000</t>
   </si>
   <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
@@ -362,9 +374,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -428,7 +437,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 1:32 PM</t>
+    <t>Thursday, 4 September, 2025 1:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1152,7 +1161,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1161,14 +1170,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1178,14 +1187,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1218,7 +1227,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1234,7 +1243,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1253,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1260,14 +1269,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1284,7 +1293,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1317,7 +1326,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1333,7 +1342,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1343,14 +1352,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1399,7 +1408,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1418,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1475,14 +1484,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,14 +1500,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1515,7 +1524,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1531,7 +1540,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1550,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1566,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1581,7 +1590,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1644,10 +1653,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,20 +1731,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1746,7 +1755,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,24 +1771,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,31 +1830,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,31 +1863,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,7 +1920,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1927,7 +1936,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1977,7 +1986,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2010,7 +2019,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2043,7 +2052,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2059,24 +2068,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,24 +2101,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2127,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2164,18 +2173,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2193,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2226,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2257,24 +2266,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,66 +2292,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1611.54</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>139</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>140</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>27</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>90</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>116</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1751.54</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>142</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>143</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>144</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2583,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>98.00</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -290,6 +302,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
@@ -344,48 +365,57 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8324:0</t>
+    <t>8323:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>62:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>62:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -437,7 +467,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 1:45 PM</t>
+    <t>Thursday, 4 September, 2025 1:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1484,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1500,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1517,11 +1547,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1533,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1557,7 +1587,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1573,7 +1603,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1583,14 +1613,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1599,14 +1629,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1623,7 +1653,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1632,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1656,7 +1686,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1665,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1686,10 +1716,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1698,14 +1728,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1715,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1731,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1748,11 +1778,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -1764,20 +1794,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1788,7 +1818,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1804,24 +1834,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1863,7 +1893,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1876,18 +1906,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1929,31 +1959,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1986,7 +2016,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2019,7 +2049,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2035,21 +2065,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2061,31 +2091,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2101,24 +2131,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2127,31 +2157,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2160,31 +2190,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2193,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2226,31 +2256,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,28 +2289,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2292,31 +2322,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,66 +2355,165 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1751.54</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>142</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>143</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>144</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>43</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>94</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>145</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>147</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>148</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>94</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>149</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>151</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>27</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>94</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>123</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1883.5650000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>152</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>153</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>154</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2588,10 +2717,25 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -467,7 +467,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 1:46 PM</t>
+    <t>Thursday, 4 September, 2025 3:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -296,12 +305,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -452,22 +455,31 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>-4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>28:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 3:07 PM</t>
+    <t>Thursday, 4 September, 2025 4:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1417,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1422,7 +1434,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1438,7 +1450,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1448,11 +1460,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1485,7 +1497,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1518,10 +1530,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1570,7 +1582,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,7 +1592,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1603,7 +1615,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1653,7 +1665,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1669,7 +1681,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1735,7 +1747,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1768,7 +1780,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1801,7 +1813,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1834,24 +1846,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,28 +1872,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1933,7 +1945,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,11 +1955,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -1959,31 +1971,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,31 +2004,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,28 +2169,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2190,31 +2202,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,7 +2235,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2236,18 +2248,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,7 +2268,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2269,18 +2281,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,28 +2334,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2355,28 +2367,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2388,28 +2400,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2421,31 +2433,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,66 +2466,132 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>152</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>153</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>97</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>150</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>27</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>97</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>124</v>
       </c>
-      <c t="s" r="Q48" s="12">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1883.5650000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>152</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>153</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>154</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2042.5650000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>156</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2732,10 +2810,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -455,31 +455,22 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>-4:0</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 4:37 PM</t>
+    <t>Thursday, 4 September, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2490,7 +2481,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2506,7 +2497,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,82 +2507,49 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1922.5650000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>153</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
         <v>154</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="A50" s="7">
-        <v>44</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c t="s" r="C50" s="8">
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
         <v>155</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c t="s" r="H50" s="9">
-        <v>27</v>
-      </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c t="s" r="L50" s="10">
-        <v>97</v>
-      </c>
-      <c r="M50" s="10"/>
-      <c t="s" r="N50" s="8">
-        <v>124</v>
-      </c>
-      <c r="O50" s="8"/>
-      <c t="s" r="P50" s="11">
-        <v>125</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2042.5650000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>156</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>157</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>158</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2815,15 +2773,10 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -470,7 +470,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 4:57 PM</t>
+    <t>Thursday, 4 September, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -389,6 +389,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -470,7 +482,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 5:10 PM</t>
+    <t>Thursday, 4 September, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2214,10 +2226,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2276,14 +2288,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,7 +2304,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,7 +2387,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2408,11 +2420,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2424,14 +2436,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2441,11 +2453,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2481,7 +2493,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2497,7 +2509,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,49 +2519,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>156</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>27</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>97</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>124</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>125</v>
       </c>
-      <c t="s" r="Q49" s="12">
+      <c t="s" r="Q50" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1922.5650000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>153</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>154</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>155</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1932.5650000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>157</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>158</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>159</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2773,10 +2818,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -302,9 +314,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -329,7 +338,7 @@
     <t>ROYAL ZAD</t>
   </si>
   <si>
-    <t>240.0000</t>
+    <t>360.0000</t>
   </si>
   <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
@@ -344,6 +353,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -482,7 +500,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 5:11 PM</t>
+    <t>Thursday, 4 September, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,21 +1702,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1734,7 +1752,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1767,7 +1785,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1797,10 +1815,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1877,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -1875,31 +1893,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1908,28 +1926,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1948,7 +1966,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,11 +2009,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>30</v>
@@ -2014,24 +2032,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,31 +2058,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2073,14 +2091,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,14 +2108,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2106,7 +2124,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2119,15 +2137,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2139,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2172,28 +2190,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
@@ -2205,31 +2223,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,28 +2256,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2271,20 +2289,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2292,10 +2310,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,28 +2322,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2337,7 +2355,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2350,18 +2368,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,28 +2388,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>30</v>
@@ -2403,31 +2421,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,28 +2454,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2476,21 +2494,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2502,31 +2520,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,66 +2553,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1932.5650000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>157</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>158</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>159</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>77</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>160</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>27</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>77</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>130</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2244.5650000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>163</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>164</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>165</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2823,10 +2907,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALKA-MISR ALKALINE WASH POWDER 14SACHETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -140,9 +149,6 @@
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>41.00</t>
   </si>
   <si>
@@ -335,6 +341,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>ROYAL ZAD</t>
   </si>
   <si>
@@ -500,7 +515,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 5:48 PM</t>
+    <t>Thursday, 4 September, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1217,14 +1232,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,7 +1272,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1266,14 +1281,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1283,14 +1298,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1299,14 +1314,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1316,14 +1331,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1332,14 +1347,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1372,7 +1387,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1382,14 +1397,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1398,14 +1413,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1415,14 +1430,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1431,14 +1446,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1448,11 +1463,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1464,14 +1479,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1481,14 +1496,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1497,14 +1512,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1514,14 +1529,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1530,14 +1545,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1547,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1570,7 +1585,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1580,14 +1595,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1596,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1613,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1646,14 +1661,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1679,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1695,31 +1710,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1728,31 +1743,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1761,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1778,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1794,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1811,14 +1826,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1827,14 +1842,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1844,14 +1859,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1881,10 +1896,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1910,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1926,31 +1941,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1959,28 +1974,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1992,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2058,31 +2073,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2098,7 +2113,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2124,31 +2139,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,14 +2189,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2190,31 +2205,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,31 +2271,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2289,31 +2304,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2322,31 +2337,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2355,31 +2370,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2395,24 +2410,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2428,24 +2443,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2461,24 +2476,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2494,24 +2509,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,31 +2535,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2553,20 +2568,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2577,7 +2592,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2599,18 +2614,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,66 +2634,132 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2244.5650000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>163</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>164</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>79</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>165</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>167</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>31</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>79</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>135</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2301.5650000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>168</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>169</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>170</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2917,10 +2998,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -515,7 +515,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 5:50 PM</t>
+    <t>Thursday, 4 September, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1849,7 +1849,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -515,7 +515,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:02 PM</t>
+    <t>Thursday, 4 September, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>7.5000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -317,6 +326,18 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -350,6 +371,12 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>ROYAL ZAD</t>
   </si>
   <si>
@@ -380,9 +407,6 @@
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -515,7 +539,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:04 PM</t>
+    <t>Thursday, 4 September, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1840,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,14 +1883,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1882,7 +1906,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,14 +1916,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1915,7 +1939,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,14 +1949,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1948,7 +1972,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1981,24 +2005,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,31 +2064,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,14 +2114,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,14 +2147,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,31 +2163,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,24 +2229,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2245,24 +2269,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2288,14 +2312,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,31 +2328,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2337,31 +2361,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,31 +2394,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>123</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,31 +2427,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2493,7 +2517,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2509,7 +2533,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2543,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,14 +2559,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,14 +2576,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2575,7 +2599,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2585,11 +2609,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2601,14 +2625,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,14 +2642,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2651,11 +2675,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,49 +2741,148 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2301.5650000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>168</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>23</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>79</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>169</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>171</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>172</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>79</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>173</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>175</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>31</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>79</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>143</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2505.5650000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>176</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>177</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>178</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3008,10 +3131,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -539,7 +539,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:12 PM</t>
+    <t>Thursday, 4 September, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -236,13 +236,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>63.8400</t>
   </si>
   <si>
     <t>EKIROZ 40 MG 14 TAB</t>
@@ -1758,7 +1758,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2852,7 +2852,7 @@
     </row>
     <row r="58" ht="24.75" customHeight="1">
       <c r="P58" s="13">
-        <v>2505.5650000000001</v>
+        <v>2553.5650000000001</v>
       </c>
       <c r="Q58" s="13"/>
     </row>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CYSTONE 60 TAB</t>
   </si>
   <si>
@@ -539,7 +548,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:15 PM</t>
+    <t>Thursday, 4 September, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1618,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1623,7 +1632,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1635,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1656,10 +1665,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1668,14 +1677,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1685,14 +1694,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1708,7 +1717,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1718,7 +1727,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1741,7 +1750,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,31 +1776,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,20 +1809,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1840,7 +1849,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1873,7 +1882,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1939,7 +1948,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1972,7 +1981,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2005,7 +2014,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2038,7 +2047,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2048,11 +2057,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2064,31 +2073,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2097,28 +2106,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2137,7 +2146,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2203,7 +2212,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2220,7 +2229,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,31 +2271,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2295,31 +2304,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,20 +2337,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2352,7 +2361,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2368,13 +2377,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2385,7 +2394,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2401,7 +2410,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2418,7 +2427,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2434,7 +2443,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2460,31 +2469,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2526,31 +2535,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2566,24 +2575,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,7 +2601,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2605,18 +2614,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2638,18 +2647,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,31 +2667,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2704,15 +2713,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2724,28 +2733,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2757,28 +2766,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -2797,24 +2806,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2823,66 +2832,99 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2553.5650000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>176</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>177</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>178</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>31</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>82</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>146</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2751.5650000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>179</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>180</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>181</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3146,10 +3188,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>ALKA-MISR ALKALINE WASH POWDER 14SACHETS</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
@@ -404,15 +422,30 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>110.0000</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -425,12 +458,6 @@
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -548,7 +575,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:16 PM</t>
+    <t>Thursday, 4 September, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1298,14 +1325,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1347,14 +1374,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1364,14 +1391,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1470,7 +1497,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1486,7 +1513,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1552,7 +1579,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1569,7 +1596,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1585,7 +1612,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1595,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1635,7 +1662,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1651,7 +1678,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1665,10 +1692,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1698,10 +1725,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1750,7 +1777,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1783,7 +1810,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1809,31 +1836,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1842,7 +1869,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1855,7 +1882,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1866,7 +1893,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1882,7 +1909,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1899,7 +1926,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1915,7 +1942,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1981,7 +2008,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2014,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2064,7 +2091,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2080,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,14 +2117,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,14 +2183,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,31 +2199,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2278,7 +2305,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2304,31 +2331,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2377,24 +2404,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2427,7 +2454,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2443,7 +2470,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2460,7 +2487,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2476,24 +2503,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2502,31 +2529,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,31 +2562,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,31 +2595,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2601,31 +2628,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,31 +2661,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,31 +2694,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,31 +2727,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2733,31 +2760,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2766,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2799,31 +2826,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,31 +2859,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2865,66 +2892,198 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2751.5650000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>179</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>85</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>163</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>180</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>27</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>85</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>181</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>184</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>85</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>185</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>187</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>34</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>85</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>155</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3021.5650000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>188</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>189</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>190</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3193,10 +3352,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -344,6 +344,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
@@ -362,9 +368,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -470,6 +473,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -575,7 +587,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:31 PM</t>
+    <t>Thursday, 4 September, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2140,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,11 +2195,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2199,31 +2211,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2239,21 +2251,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2305,7 +2317,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2364,7 +2376,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2397,31 +2409,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2430,31 +2442,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,28 +2508,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2529,28 +2541,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2635,7 +2647,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2673,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,31 +2706,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2814,7 +2826,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -2826,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2843,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3041,49 +3053,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3021.5650000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>187</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>188</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>85</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>189</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>34</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>85</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>159</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3096.5650000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>192</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>193</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>194</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3372,10 +3450,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>113.0000</t>
+  </si>
+  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
@@ -359,6 +368,12 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -587,7 +602,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:39 PM</t>
+    <t>Thursday, 4 September, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2218,7 +2233,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,11 +2243,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2251,21 +2266,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,31 +2325,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,7 +2441,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2449,24 +2464,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,31 +2523,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,31 +2556,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2581,7 +2596,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2614,24 +2629,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,11 +2672,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2697,7 +2712,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2723,11 +2738,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -2739,31 +2754,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,31 +2787,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2878,7 +2893,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,11 +2903,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -2921,14 +2936,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2944,7 +2959,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,7 +2969,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2977,7 +2992,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,49 +3134,115 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3096.5650000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>192</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>193</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>85</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>194</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>34</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>85</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>164</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3225.4050000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>197</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>198</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>199</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3541,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -602,7 +602,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:43 PM</t>
+    <t>Thursday, 4 September, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -311,93 +311,96 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>22.00</t>
   </si>
   <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>113.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
     <t>22.0000</t>
   </si>
   <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
-  </si>
-  <si>
-    <t>113.00</t>
-  </si>
-  <si>
-    <t>113.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -455,6 +458,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
@@ -602,7 +614,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:44 PM</t>
+    <t>Thursday, 4 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2035,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2045,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2078,7 +2090,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2094,7 +2106,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2111,11 +2123,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2127,7 +2139,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2144,11 +2156,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2160,7 +2172,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2181,7 +2193,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2193,7 +2205,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2210,11 +2222,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2226,7 +2238,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2243,11 +2255,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2259,7 +2271,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2280,7 +2292,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2313,7 +2325,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2408,11 +2420,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2424,7 +2436,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2441,11 +2453,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2457,7 +2469,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2474,11 +2486,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2490,7 +2502,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2511,7 +2523,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2523,7 +2535,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2544,7 +2556,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>38</v>
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>98</v>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2622,7 +2634,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2639,11 +2651,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,11 +2684,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2794,7 +2806,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2820,20 +2832,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2877,7 +2889,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,10 +2919,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,7 +2964,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,7 +2997,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,7 +3080,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3101,11 +3113,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3117,14 +3129,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3174,7 +3186,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3190,7 +3202,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,49 +3212,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3225.4050000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>197</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>198</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>199</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>34</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>85</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>168</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3327.4050000000002</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3551,10 +3596,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -461,10 +470,13 @@
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
+    <t>-6:0</t>
+  </si>
+  <si>
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
+    <t>560.0000</t>
   </si>
   <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
@@ -614,7 +626,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:50 PM</t>
+    <t>Thursday, 4 September, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2323,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2325,7 +2337,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2337,31 +2349,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,28 +2382,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2410,7 +2422,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,7 +2465,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2476,7 +2488,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2493,7 +2505,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,31 +2547,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,31 +2580,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2625,7 +2637,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2641,21 +2653,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2667,7 +2679,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2680,11 +2692,11 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2707,7 +2719,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2839,7 +2851,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,20 +2877,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2922,7 +2934,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,10 +2964,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,7 +3009,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,7 +3042,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,7 +3125,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3146,11 +3158,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3179,11 +3191,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3219,7 +3231,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3235,7 +3247,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3245,49 +3257,82 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3327.4050000000002</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>201</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>202</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>203</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>34</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>85</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>172</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3881.4050000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>205</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>206</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>207</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3601,10 +3646,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -311,9 +323,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -338,6 +347,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>KAPRON 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -419,12 +437,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
     <t>17.0000</t>
   </si>
   <si>
@@ -482,12 +506,6 @@
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -626,7 +644,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 7:55 PM</t>
+    <t>Thursday, 4 September, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1416,7 +1434,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1449,7 +1467,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1482,7 +1500,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1515,7 +1533,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1531,7 +1549,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1541,11 +1559,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1557,14 +1575,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,14 +1592,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1590,14 +1608,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1614,7 +1632,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1630,7 +1648,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,11 +1658,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1729,7 +1747,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,11 +1757,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,11 +1790,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1911,7 +1929,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1927,13 +1945,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1944,7 +1962,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1960,21 +1978,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2043,7 +2061,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2092,7 +2110,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2175,7 +2193,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2191,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2308,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2316,7 +2334,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2333,11 +2351,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2382,31 +2400,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,31 +2466,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,11 +2582,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2580,7 +2598,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2593,18 +2611,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2653,7 +2671,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,11 +2681,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2679,7 +2697,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2692,18 +2710,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,11 +2780,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -2778,31 +2796,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,28 +2928,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -2943,31 +2961,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,28 +2994,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3009,31 +3027,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3060,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,31 +3093,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3126,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,28 +3159,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3174,31 +3192,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,28 +3225,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3240,31 +3258,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,66 +3291,165 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3881.4050000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>27</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>89</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>204</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c t="s" r="Q69" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>206</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>207</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>89</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>208</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>38</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>89</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>178</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4082.4050000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>211</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>212</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>213</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3651,10 +3768,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -644,7 +653,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:00 PM</t>
+    <t>Thursday, 4 September, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2605,7 +2614,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2664,7 +2673,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,31 +2706,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,31 +2739,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2787,7 +2796,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2803,21 +2812,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -2829,31 +2838,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3018,7 +3027,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3034,21 +3043,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3133,7 +3142,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,7 +3168,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3364,7 +3373,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3407,49 +3416,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4082.4050000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>211</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>212</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>213</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>38</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>89</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>181</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4141.8050000000003</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>214</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>215</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>216</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3783,10 +3825,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -263,15 +275,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>63.8400</t>
   </si>
   <si>
@@ -473,6 +488,15 @@
     <t>360.0000</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
@@ -485,6 +509,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -497,9 +530,6 @@
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
@@ -548,6 +578,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -575,7 +617,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>62:0</t>
+    <t>61:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -593,15 +635,15 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -623,6 +665,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -632,10 +683,22 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>محلول جلوكوز 5%</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -653,7 +716,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:03 PM</t>
+    <t>Thursday, 4 September, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1621,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1568,14 +1631,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1591,7 +1654,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1601,11 +1664,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1617,14 +1680,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1634,14 +1697,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1650,14 +1713,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1674,7 +1737,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1690,7 +1753,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,11 +1763,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1716,14 +1779,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1733,14 +1796,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1812,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1789,7 +1852,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,11 +1862,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -1815,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,11 +1895,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>23</v>
@@ -1848,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1898,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1914,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,11 +1994,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -1947,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1971,7 +2034,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1987,24 +2050,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2030,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2046,28 +2109,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -2079,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2096,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2112,14 +2175,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2145,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2162,14 +2225,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2178,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2195,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2211,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2232,10 +2295,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2244,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2261,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2277,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2294,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2317,7 +2380,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2334,7 +2397,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2350,7 +2413,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2360,14 +2423,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2376,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2393,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2449,7 +2512,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,24 +2545,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2525,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,31 +2604,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2581,7 +2644,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2598,7 +2661,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2614,7 +2677,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2640,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,11 +2720,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2673,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,7 +2753,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2713,7 +2776,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2739,31 +2802,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2772,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,31 +2868,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,31 +2901,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2888,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2921,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2937,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2970,7 +3033,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2983,15 +3046,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3003,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3053,11 +3116,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3069,31 +3132,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3102,31 +3165,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,31 +3198,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3181,18 +3244,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,28 +3264,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3234,31 +3297,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3280,18 +3343,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3363,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3340,24 +3403,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3379,7 +3442,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3387,10 +3450,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>208</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3406,24 +3469,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3432,66 +3495,363 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4141.8050000000003</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>212</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>94</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>205</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>214</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>215</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>94</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>216</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>194</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>94</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>219</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>221</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>222</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>94</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>203</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>27</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>94</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>191</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>226</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>94</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>195</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>227</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>194</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>94</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>228</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>230</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>231</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>94</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>232</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>38</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>94</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>195</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4681.6850000000004</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3830,10 +4190,55 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -716,7 +716,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:10 PM</t>
+    <t>Thursday, 4 September, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -527,6 +536,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>TRESS HAIR OIL 250 ML</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
@@ -716,7 +734,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:12 PM</t>
+    <t>Thursday, 4 September, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1786,7 +1804,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1796,7 +1814,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1819,7 +1837,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1836,7 +1854,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1852,7 +1870,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1862,11 +1880,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1918,7 +1936,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1932,7 +1950,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1965,10 +1983,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,14 +2012,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2017,7 +2035,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,7 +2045,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2050,7 +2068,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2116,24 +2134,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2142,20 +2160,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2182,7 +2200,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2215,7 +2233,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2281,7 +2299,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2314,7 +2332,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2380,7 +2398,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2397,7 +2415,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2423,11 +2441,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,7 +2530,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,14 +2540,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2578,7 +2596,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2592,7 +2610,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2604,31 +2622,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,28 +2655,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2677,7 +2695,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,7 +2738,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2743,7 +2761,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2760,7 +2778,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2776,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2793,7 +2811,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2809,7 +2827,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,7 +2853,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2868,31 +2886,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2901,31 +2919,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2941,7 +2959,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2991,7 +3009,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3007,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3024,7 +3042,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3040,21 +3058,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,28 +3117,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,7 +3249,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3248,11 +3266,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3264,31 +3282,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,28 +3315,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3330,31 +3348,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,31 +3381,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3396,20 +3414,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3417,10 +3435,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,31 +3447,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,7 +3480,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3475,18 +3493,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,7 +3513,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3508,18 +3526,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,31 +3579,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,28 +3612,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3627,28 +3645,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3660,31 +3678,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,28 +3711,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3726,31 +3744,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,31 +3777,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,66 +3810,132 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4681.6850000000004</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>235</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>236</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>237</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>97</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>238</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>240</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>38</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>97</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>201</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4890.8850000000002</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>241</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>242</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>243</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4319,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -578,75 +578,81 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8323:0</t>
+    <t>8311:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>61:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>51:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>61:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -662,6 +668,18 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -701,9 +719,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كحول ايثيلي 120 مل </t>
   </si>
   <si>
@@ -734,7 +749,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:15 PM</t>
+    <t>Thursday, 4 September, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3306,7 +3321,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3315,7 +3330,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3332,11 +3347,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3348,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,11 +3380,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,7 +3479,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3480,7 +3495,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3497,11 +3512,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>38</v>
@@ -3513,7 +3528,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3546,7 +3561,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3567,7 +3582,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>42</v>
@@ -3579,7 +3594,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3596,11 +3611,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3612,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3629,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3662,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3695,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3728,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3744,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3761,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3777,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3794,14 +3809,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3827,11 +3842,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3893,49 +3908,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>245</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>38</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>97</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>202</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4890.8850000000002</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>241</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>242</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>243</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4921.8850000000002</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>246</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>247</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>248</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4329,10 +4377,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -749,7 +749,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:16 PM</t>
+    <t>Thursday, 4 September, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>6:3</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -602,72 +602,78 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>32:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>60:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>51:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>61:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -719,6 +725,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كحول ايثيلي 120 مل </t>
   </si>
   <si>
@@ -737,19 +746,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:17 PM</t>
+    <t>Thursday, 4 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2116,7 +2122,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2130,10 +2136,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -3384,10 +3390,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,11 +3452,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,10 +3588,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,7 +3600,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3615,7 +3621,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,11 +3650,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3681,7 +3687,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3710,11 +3716,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3749,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,7 +3782,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3792,7 +3798,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3813,10 +3819,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3858,14 +3864,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3875,11 +3881,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,7 +3930,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3941,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -3953,13 +3959,13 @@
     </row>
     <row r="85" ht="24.75" customHeight="1">
       <c r="P85" s="13">
-        <v>4921.8850000000002</v>
+        <v>5009.7650000000003</v>
       </c>
       <c r="Q85" s="13"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c t="s" r="A86" s="14">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -3967,13 +3973,13 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c t="s" r="G86" s="15">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="16"/>
       <c t="s" r="K86" s="17">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -329,6 +329,12 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -513,9 +519,6 @@
   </si>
   <si>
     <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
   </si>
   <si>
     <t>SULBIN 1.5GM VIAL</t>
@@ -2287,24 +2290,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2400,10 +2403,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2429,11 +2432,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2465,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,7 +2481,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2495,7 +2498,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2518,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2617,7 +2620,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,14 +2630,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2683,24 +2686,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,28 +2712,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2785,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2947,24 +2950,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2980,24 +2983,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3151,15 +3154,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3178,24 +3181,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3244,7 +3247,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3310,7 +3313,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,31 +3372,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,7 +3537,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,7 +3570,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,7 +3603,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,11 +3884,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,49 +3950,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>248</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>38</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>97</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>202</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5009.7650000000003</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>248</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5057.2849999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
         <v>249</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
         <v>250</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>251</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4388,10 +4424,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -605,12 +605,15 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>32:0</t>
+    <t>31:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كحول ايثيلي 120 مل </t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:18 PM</t>
+    <t>Thursday, 4 September, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3426,10 +3426,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,11 +3455,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3471,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,11 +3488,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>30</v>
@@ -3504,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,11 +3521,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>42</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>38</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3587,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>30</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3653,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3669,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3702,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3719,11 +3719,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3735,14 +3735,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3752,11 +3752,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3768,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3785,11 +3785,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3801,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>42</v>
@@ -3884,11 +3884,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3907,7 +3907,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,11 +3983,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="86" ht="25.5" customHeight="1">
       <c r="P86" s="13">
-        <v>5057.2849999999999</v>
+        <v>5072.2849999999999</v>
       </c>
       <c r="Q86" s="13"/>
     </row>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -461,12 +473,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -546,6 +552,15 @@
   </si>
   <si>
     <t>190.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
   </si>
   <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
@@ -1960,7 +1975,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1970,11 +1985,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -2118,14 +2133,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,31 +2199,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2224,21 +2239,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2267,11 +2282,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2283,31 +2298,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,31 +2331,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2373,7 +2388,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2403,10 +2418,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,7 +2463,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,7 +2529,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2531,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,7 +2595,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2597,11 +2612,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2613,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2712,31 +2727,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,28 +2760,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2909,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2983,24 +2998,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3016,24 +3031,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3096,10 +3111,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3174,7 +3189,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3187,15 +3202,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3231,7 +3246,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3247,21 +3262,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3280,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,11 +3338,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3363,7 +3378,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3372,7 +3387,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3389,11 +3404,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3405,31 +3420,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,28 +3453,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3471,31 +3486,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,31 +3552,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,31 +3585,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,7 +3618,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3616,18 +3631,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3649,18 +3664,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,31 +3684,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3702,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3735,28 +3750,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3768,28 +3783,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3801,28 +3816,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3841,24 +3856,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,28 +3882,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3900,31 +3915,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3946,18 +3961,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3966,66 +3981,132 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5072.2849999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>249</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>250</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>251</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>101</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>252</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>38</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>101</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>208</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5149.2849999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>254</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>255</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>256</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4429,10 +4510,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -362,6 +362,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -560,7 +572,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
   </si>
   <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
@@ -767,13 +779,10 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:19 PM</t>
+    <t>Thursday, 4 September, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,7 +2413,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2451,10 +2460,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,7 +2505,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2562,7 +2571,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2760,31 +2769,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,28 +2802,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,7 +3000,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,31 +3033,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3057,31 +3066,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,10 +3120,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3255,31 +3264,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,31 +3297,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3328,7 +3337,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>198</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3477,7 +3486,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,20 +3495,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3510,7 +3519,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,7 +3552,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,7 +3585,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,7 +3618,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3625,7 +3634,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,7 +3660,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>223</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,7 +3693,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,7 +3726,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,7 +3842,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3856,7 +3865,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,11 +3908,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3972,7 +3981,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4035,10 +4044,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,49 +4073,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5149.2849999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>254</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>255</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>256</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>38</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>101</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>212</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5176.125</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>257</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>258</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>259</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4520,10 +4562,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -782,7 +782,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:27 PM</t>
+    <t>Thursday, 4 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -134,12 +134,24 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>AVUVA WHITE PASTE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -239,6 +251,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -260,6 +281,18 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>CYSTONE 60 TAB</t>
   </si>
   <si>
@@ -302,21 +335,24 @@
     <t>6:3</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>63.8400</t>
   </si>
   <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -401,6 +437,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -614,9 +659,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>15:0</t>
   </si>
   <si>
@@ -692,9 +734,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -782,7 +821,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:28 PM</t>
+    <t>Thursday, 4 September, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,18 +1699,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1680,14 +1719,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1697,14 +1736,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1720,7 +1759,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1730,14 +1769,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1753,7 +1792,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1763,11 +1802,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1779,14 +1818,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1796,14 +1835,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1812,14 +1851,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1836,7 +1875,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1862,11 +1901,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1878,14 +1917,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,11 +1934,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1911,14 +1950,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,14 +1967,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1944,14 +1983,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2017,7 +2056,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2034,7 +2073,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2050,7 +2089,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,11 +2099,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2076,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2109,14 +2148,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2181,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,11 +2198,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2175,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2231,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,28 +2280,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2274,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,11 +2363,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2340,31 +2379,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,20 +2412,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2397,7 +2436,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,14 +2445,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2423,14 +2462,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,14 +2478,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2495,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,28 +2511,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2505,14 +2544,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2561,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2538,14 +2577,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2562,7 +2601,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2578,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2595,7 +2634,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2611,7 +2650,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,11 +2693,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2670,7 +2709,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2687,11 +2726,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2703,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2769,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2802,31 +2841,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2901,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,11 +2957,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -2934,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,31 +3006,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,11 +3056,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3033,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,11 +3089,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3066,31 +3105,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,7 +3138,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3116,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3231,7 +3270,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3244,18 +3283,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,7 +3327,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,24 +3343,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3363,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3396,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3468,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,31 +3501,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,31 +3567,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,31 +3600,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,31 +3633,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,31 +3666,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,7 +3699,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3673,18 +3712,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,31 +3732,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>227</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,31 +3765,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3805,7 +3844,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3816,7 +3855,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3832,24 +3871,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3865,24 +3904,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4003,15 +4042,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4023,28 +4062,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4056,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,66 +4128,231 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5176.125</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>257</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>258</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>259</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>261</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>27</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>43</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>222</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>262</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>263</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>43</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>226</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>264</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>225</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>43</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>265</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>267</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>268</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>43</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>131</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>269</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>38</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>43</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>226</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5281.415</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>270</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>271</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>272</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4567,10 +4771,35 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -821,7 +821,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:38 PM</t>
+    <t>Thursday, 4 September, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>114.00</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>228.0000</t>
   </si>
   <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
@@ -401,13 +401,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:4</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>3.8400</t>
+    <t>7.6800</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
@@ -623,6 +623,9 @@
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
@@ -821,7 +824,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:40 PM</t>
+    <t>Thursday, 4 September, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2485,7 +2488,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2502,7 +2505,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2601,7 +2604,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3541,7 +3544,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3607,7 +3610,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3673,7 +3676,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>216</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,31 +3735,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,7 +3900,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,7 +3933,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,7 +3966,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3980,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4112,11 +4115,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4201,7 +4204,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,14 +4214,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,49 +4313,82 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>270</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>38</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>43</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>227</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5281.415</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>270</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5417.2550000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>271</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
         <v>272</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>273</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4796,10 +4832,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -410,6 +410,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -824,7 +833,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 8:46 PM</t>
+    <t>Thursday, 4 September, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2620,7 +2629,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2637,7 +2646,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2653,7 +2662,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2686,7 +2695,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2752,7 +2761,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2785,7 +2794,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2802,7 +2811,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2917,7 +2926,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2983,7 +2992,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2997,7 +3006,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3009,31 +3018,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3042,28 +3051,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3082,7 +3091,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3198,7 +3207,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3214,7 +3223,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3240,7 +3249,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3273,31 +3282,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3306,31 +3315,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3412,7 +3421,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3429,7 +3438,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3478,7 +3487,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3495,7 +3504,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,24 +3520,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,31 +3546,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3676,7 +3685,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3756,10 +3765,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>220</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3775,24 +3784,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3851,14 +3860,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3924,7 +3933,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,10 +3963,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3966,7 +3975,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,7 +4008,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,7 +4091,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4115,11 +4124,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4171,7 +4180,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4289,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4303,7 +4312,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,49 +4355,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5417.2550000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>271</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>272</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>273</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>38</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>43</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>230</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5444.9750000000004</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>274</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>275</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>276</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4837,10 +4879,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFOTRIX 1 GM I.V. VIAL (U.S.P.23)</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -302,204 +311,204 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>113.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
-  </si>
-  <si>
-    <t>113.00</t>
-  </si>
-  <si>
-    <t>113.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -521,6 +530,12 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -665,13 +680,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8311:0</t>
+    <t>8309:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
@@ -749,7 +764,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -812,9 +827,6 @@
     <t xml:space="preserve">كحول ايثيلي 120 مل </t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
@@ -833,7 +845,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:00 PM</t>
+    <t>Thursday, 4 September, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1969,7 +1981,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1986,7 +1998,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2002,7 +2014,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2019,7 +2031,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2035,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2045,11 +2057,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2085,7 +2097,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2101,7 +2113,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2111,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2127,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2167,7 +2179,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2193,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2214,10 +2226,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2247,10 +2259,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2276,14 +2288,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2309,11 +2321,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2408,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2431,24 +2443,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2457,28 +2469,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2490,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2523,31 +2535,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2563,24 +2575,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2606,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2705,14 +2717,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2742,10 +2754,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2771,11 +2783,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2804,11 +2816,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2853,7 +2865,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2870,7 +2882,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2893,7 +2905,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2919,7 +2931,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3025,7 +3037,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3039,7 +3051,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3051,31 +3063,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3084,28 +3096,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3124,7 +3136,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3157,7 +3169,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3167,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3216,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,11 +3245,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3249,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,7 +3278,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3289,7 +3301,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3315,31 +3327,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3348,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3388,24 +3400,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3414,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3447,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3468,10 +3480,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3480,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3497,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,7 +3558,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3559,15 +3571,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3579,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,31 +3624,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3652,7 +3664,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3662,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3685,7 +3697,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3711,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,11 +3740,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3744,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3765,10 +3777,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>220</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3794,11 +3806,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3810,31 +3822,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3843,28 +3855,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3942,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4025,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,7 +4053,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4058,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,14 +4119,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,14 +4136,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,11 +4169,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4173,14 +4185,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,11 +4202,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4206,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,11 +4235,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4246,7 +4258,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4256,14 +4268,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,14 +4284,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,11 +4301,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4334,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4345,7 +4357,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,14 +4367,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,49 +4400,115 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5444.9750000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>274</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>275</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>276</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>43</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>133</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>277</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>38</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>43</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>235</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5682</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>278</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>279</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>280</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4884,10 +4962,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -845,7 +845,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:10 PM</t>
+    <t>Thursday, 4 September, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -350,6 +350,12 @@
     <t>21.00</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -509,9 +515,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -845,7 +848,7 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:11 PM</t>
+    <t>Thursday, 4 September, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2443,7 +2446,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2460,7 +2463,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2476,24 +2479,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,28 +2505,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,31 +2571,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2608,24 +2611,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,14 +2687,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2720,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2736,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,14 +2753,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2787,10 +2790,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2832,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2865,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,7 +2901,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2915,7 +2918,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2938,7 +2941,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,14 +2951,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2964,7 +2967,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3050,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3096,31 +3099,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,18 +3145,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3268,7 +3271,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3314,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,31 +3396,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,31 +3429,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3545,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,31 +3627,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3664,24 +3667,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3697,7 +3700,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3763,7 +3766,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3809,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3829,7 +3832,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,31 +3891,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,14 +3941,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3974,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,7 +4056,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4070,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,7 +4089,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4103,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,7 +4122,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4136,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,11 +4238,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4317,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4357,7 +4360,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4390,7 +4393,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,11 +4403,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,14 +4452,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,49 +4469,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>278</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>38</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>43</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>236</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5682</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>278</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5697.8400000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>279</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>280</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>281</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4972,10 +5008,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -389,6 +389,12 @@
     <t>228.0000</t>
   </si>
   <si>
+    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -848,7 +854,13 @@
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:12 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>Thursday, 4 September, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2611,24 +2623,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2644,24 +2656,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2699,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2823,10 +2835,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,11 +2864,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2934,7 +2946,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2951,7 +2963,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2974,7 +2986,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,7 +3012,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3073,7 +3085,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,11 +3128,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3139,24 +3151,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3165,7 +3177,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3178,18 +3190,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3205,7 +3217,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3219,10 +3231,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3271,7 +3283,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3413,14 +3425,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3436,24 +3448,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3469,24 +3481,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>132</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3549,10 +3561,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,31 +3672,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,31 +3705,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>226</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,31 +3936,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,7 +4101,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>252</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>254</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4195,7 +4207,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,11 +4250,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,11 +4283,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,11 +4316,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,11 +4349,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4360,7 +4372,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4492,7 +4504,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,49 +4514,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5697.8400000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>279</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>280</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>38</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>43</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>238</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>281</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>282</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>43</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>246</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5837.8400000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>283</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>284</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>285</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5013,10 +5091,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -545,6 +545,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -860,7 +869,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:21 PM</t>
+    <t>Thursday, 4 September, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3250,13 +3259,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3283,7 +3292,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,11 +3335,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3399,7 +3408,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3415,7 +3424,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,7 +3450,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,31 +3483,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,31 +3516,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3547,7 +3556,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3580,7 +3589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3613,7 +3622,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3630,7 +3639,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3679,7 +3688,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3696,7 +3705,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3712,24 +3721,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,31 +3747,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3957,10 +3966,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>231</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3976,24 +3985,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4125,7 +4134,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,10 +4164,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,7 +4176,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,7 +4209,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,7 +4292,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4316,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4372,7 +4381,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4504,7 +4513,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,49 +4589,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>284</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>285</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>43</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>249</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5837.8400000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>283</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>284</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>285</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5886.3500000000004</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>286</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>287</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>288</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5101,10 +5143,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -338,7 +338,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
   </si>
   <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
@@ -410,9 +413,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -428,6 +428,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLEXILAX 30 F.C.TAB</t>
   </si>
   <si>
@@ -437,13 +446,22 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
     <t>22.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
@@ -575,9 +593,6 @@
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>59.4000</t>
   </si>
   <si>
@@ -695,6 +710,12 @@
     <t>VITASTRESS 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -788,9 +809,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -869,7 +887,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:29 PM</t>
+    <t>Thursday, 4 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2415,10 +2433,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,7 +2462,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2460,7 +2478,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2481,7 +2499,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2493,7 +2511,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2514,7 +2532,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2526,7 +2544,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2543,11 +2561,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2559,7 +2577,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2576,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2592,7 +2610,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2609,11 +2627,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>38</v>
@@ -2625,7 +2643,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2646,7 +2664,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2658,7 +2676,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2679,7 +2697,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>134</v>
@@ -2764,7 +2782,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2797,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2814,7 +2832,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2830,24 +2848,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2863,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2880,7 +2898,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2896,7 +2914,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2962,7 +2980,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2979,7 +2997,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2995,7 +3013,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3094,7 +3112,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3137,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,31 +3204,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,11 +3287,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3331,18 +3349,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3457,7 +3475,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,7 +3485,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3490,7 +3508,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3516,31 +3534,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3589,24 +3607,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3669,10 +3687,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,7 +3765,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3760,15 +3778,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,31 +3831,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3853,7 +3871,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3886,7 +3904,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3966,10 +3984,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3995,11 +4013,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4011,31 +4029,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4145,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>42</v>
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4259,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4296,10 +4314,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4391,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4480,7 +4498,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,11 +4541,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4539,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,11 +4574,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>42</v>
@@ -4579,7 +4597,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,11 +4607,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4612,7 +4630,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,49 +4640,148 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>287</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>288</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>43</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>137</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>289</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>38</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>43</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>248</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>290</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>291</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>43</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>256</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5886.3500000000004</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>286</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>287</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>288</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6119.6599999999999</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>292</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>293</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>294</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5148,10 +5265,25 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:3</t>
   </si>
   <si>
     <t>35.6400</t>
@@ -431,6 +431,9 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
     <t>FORADIL12 MG 60 CAPS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>560.00</t>
   </si>
   <si>
@@ -467,9 +473,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -536,9 +539,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -887,7 +887,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:35 PM</t>
+    <t>Thursday, 4 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2782,7 +2782,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2841,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2874,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>42</v>
@@ -2907,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2957,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3122,11 +3122,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3155,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3171,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3947,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4036,7 +4036,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>112</v>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -338,81 +338,90 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS 20TAB</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>108.00</t>
   </si>
   <si>
     <t>35.6400</t>
   </si>
   <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -713,7 +722,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -866,9 +875,6 @@
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -887,7 +893,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:36 PM</t>
+    <t>Thursday, 4 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2436,7 +2442,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2551,7 +2557,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2568,7 +2574,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2584,13 +2590,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2617,7 +2623,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2634,7 +2640,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2650,7 +2656,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2666,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,31 +2682,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,31 +2715,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2848,21 +2854,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2874,20 +2880,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2898,7 +2904,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2914,7 +2920,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2928,10 +2934,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2980,7 +2986,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3013,7 +3019,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3046,7 +3052,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3063,7 +3069,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3089,11 +3095,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3178,7 +3184,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3227,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3244,7 +3250,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3258,7 +3264,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3270,31 +3276,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,7 +3309,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3316,18 +3322,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,31 +3342,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3376,13 +3382,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3409,7 +3415,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3541,7 +3547,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,7 +3573,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,31 +3606,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,31 +3639,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3673,7 +3679,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3689,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3706,7 +3712,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3722,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3739,7 +3745,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3756,7 +3762,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3772,7 +3778,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3805,7 +3811,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3822,7 +3828,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,24 +3844,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,31 +3870,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3953,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4003,7 +4009,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4019,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4052,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4116,10 +4122,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>241</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4135,24 +4141,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,14 +4266,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4284,7 +4290,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,10 +4320,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,7 +4332,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4343,14 +4349,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,7 +4365,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4376,14 +4382,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>112</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4415,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4431,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,7 +4448,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4475,11 +4481,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4491,14 +4497,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4531,7 +4537,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4547,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4557,14 +4563,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,14 +4613,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,11 +4646,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4663,7 +4669,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,14 +4679,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4696,7 +4702,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4712,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,49 +4745,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>292</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>293</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>43</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>259</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6119.6599999999999</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>292</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>293</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c t="s" r="Q105" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6164.8699999999999</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>294</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>295</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>296</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5280,10 +5319,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -620,6 +620,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ROWACHOL 45 CAPSULES</t>
   </si>
   <si>
@@ -893,7 +902,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:38 PM</t>
+    <t>Thursday, 4 September, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3613,7 +3622,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,11 +3632,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3639,31 +3648,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3672,31 +3681,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3712,7 +3721,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3778,7 +3787,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3795,7 +3804,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3844,7 +3853,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3861,7 +3870,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3877,24 +3886,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3903,31 +3912,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4155,10 +4164,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>244</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4174,24 +4183,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4323,7 +4332,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,10 +4362,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4398,7 +4407,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>94</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,7 +4490,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4570,7 +4579,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,11 +4589,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,11 +4688,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4745,14 +4754,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4778,49 +4787,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>295</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>296</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>43</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>262</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6164.8699999999999</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>294</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>295</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>296</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6192.8699999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>297</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>298</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>299</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5324,10 +5366,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -272,13 +272,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
@@ -476,9 +476,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -902,7 +899,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:39 PM</t>
+    <t>Thursday, 4 September, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2220,7 +2217,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2943,7 +2940,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>42</v>
@@ -2955,7 +2952,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2972,7 +2969,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2988,7 +2985,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3005,11 +3002,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>23</v>
@@ -3021,7 +3018,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3038,11 +3035,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3054,7 +3051,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3071,11 +3068,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3087,7 +3084,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3104,11 +3101,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3120,7 +3117,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3170,11 +3167,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3186,7 +3183,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3203,11 +3200,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3219,7 +3216,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3269,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3285,7 +3282,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3302,11 +3299,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3318,7 +3315,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3351,7 +3348,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3368,7 +3365,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3384,7 +3381,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3401,11 +3398,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3417,7 +3414,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3434,11 +3431,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3450,7 +3447,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3471,7 +3468,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3483,7 +3480,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3516,7 +3513,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3537,7 +3534,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3549,7 +3546,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3566,11 +3563,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3582,7 +3579,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3603,7 +3600,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3615,7 +3612,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3632,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3648,7 +3645,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3681,7 +3678,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3702,7 +3699,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>42</v>
@@ -3714,7 +3711,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3731,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3747,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,7 +3761,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3780,7 +3777,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3797,11 +3794,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3830,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3863,11 +3860,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3879,7 +3876,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3896,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3912,7 +3909,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3929,11 +3926,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3945,7 +3942,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3978,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>94</v>
@@ -4011,7 +4008,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4028,11 +4025,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4044,7 +4041,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4061,11 +4058,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4077,7 +4074,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4127,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4143,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,7 +4173,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4193,11 +4190,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4209,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,11 +4223,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>42</v>
@@ -4242,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4275,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,11 +4289,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4308,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,11 +4322,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>42</v>
@@ -4341,7 +4338,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4358,11 +4355,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>38</v>
@@ -4374,7 +4371,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4391,7 +4388,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4407,7 +4404,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4424,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,7 +4437,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4473,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,11 +4487,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4506,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4523,11 +4520,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>23</v>
@@ -4539,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4572,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,11 +4586,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4605,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,7 +4619,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4638,7 +4635,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4655,11 +4652,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>42</v>
@@ -4671,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,11 +4685,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4704,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4737,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>42</v>
@@ -4770,7 +4767,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4787,11 +4784,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4803,14 +4800,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,7 +4817,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4832,13 +4829,13 @@
     </row>
     <row r="107" ht="25.5" customHeight="1">
       <c r="P107" s="13">
-        <v>6192.8699999999999</v>
+        <v>6225.8699999999999</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
       <c t="s" r="A108" s="14">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4846,13 +4843,13 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c t="s" r="G108" s="15">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="16"/>
       <c t="s" r="K108" s="17">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:40 PM</t>
+    <t>Thursday, 4 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -362,7 +380,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>DOLO-D PLUS 20TAB</t>
@@ -440,9 +461,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -596,6 +614,15 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -611,6 +638,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
@@ -668,12 +704,6 @@
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
     <t>TRESS HAIR OIL 250 ML</t>
   </si>
   <si>
@@ -689,9 +719,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
@@ -734,24 +761,18 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8309:0</t>
+    <t>8306:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -899,7 +920,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:43 PM</t>
+    <t>Thursday, 4 September, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1738,7 +1759,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1748,11 +1769,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>23</v>
@@ -1764,28 +1785,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>23</v>
@@ -1797,20 +1818,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1821,7 +1842,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1837,7 +1858,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1854,7 +1875,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1863,14 +1884,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1880,14 +1901,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1896,14 +1917,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1936,7 +1957,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1953,7 +1974,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1969,7 +1990,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2012,7 +2033,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2035,7 +2056,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2068,7 +2089,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2085,7 +2106,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2101,7 +2122,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2118,7 +2139,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2134,7 +2155,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2144,11 +2165,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2160,14 +2181,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2184,7 +2205,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2200,7 +2221,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2210,14 +2231,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2226,14 +2247,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2264,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,14 +2297,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2309,11 +2330,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -2332,7 +2353,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,14 +2363,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,11 +2396,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2398,7 +2419,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2415,7 +2436,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,7 +2469,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2464,7 +2485,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,11 +2495,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2497,7 +2518,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,14 +2528,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2523,14 +2544,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,14 +2561,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2556,28 +2577,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2589,31 +2610,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,31 +2643,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2655,31 +2676,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,7 +2709,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2705,11 +2726,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2721,31 +2742,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,14 +2775,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,14 +2792,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2787,28 +2808,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2858,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2877,7 +2898,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2893,21 +2914,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2919,14 +2940,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2957,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2959,24 +2980,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3056,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3091,7 +3112,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3108,7 +3129,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3124,7 +3145,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,14 +3155,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3223,7 +3244,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,7 +3270,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3282,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3315,31 +3336,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,11 +3386,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3381,28 +3402,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3460,18 +3481,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3584,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3579,31 +3600,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,7 +3633,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3678,31 +3699,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>137</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,31 +3831,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3850,7 +3871,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3867,7 +3888,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,7 +3904,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3916,24 +3937,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3980,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,31 +4062,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4081,7 +4102,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4112,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4114,7 +4135,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>243</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,31 +4227,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,31 +4260,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,31 +4293,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,31 +4326,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,31 +4359,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,31 +4392,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,31 +4425,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>269</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,31 +4458,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,31 +4491,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,31 +4524,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,31 +4557,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4569,31 +4590,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,28 +4623,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>23</v>
@@ -4635,31 +4656,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,28 +4689,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4708,21 +4729,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4734,31 +4755,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,31 +4788,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4800,66 +4821,198 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>259</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>46</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>126</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>298</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>299</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>46</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>147</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>300</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>41</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>46</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>260</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>302</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>46</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>268</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6225.8699999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>296</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>297</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>298</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6628.8699999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>303</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>304</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>305</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5368,10 +5521,30 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:47 PM</t>
+    <t>Thursday, 4 September, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -194,12 +203,6 @@
     <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -290,210 +293,213 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS 20TAB</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
     <t>66.0000</t>
   </si>
   <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>111.8400</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS 20TAB</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -920,7 +926,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:50 PM</t>
+    <t>Thursday, 4 September, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1759,7 +1765,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1769,14 +1775,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1785,14 +1791,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1825,21 +1831,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1851,20 +1857,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1875,7 +1881,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1891,7 +1897,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1908,7 +1914,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1917,14 +1923,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1934,14 +1940,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1990,7 +1996,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2033,14 +2039,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2049,14 +2055,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2066,11 +2072,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2165,14 +2171,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2198,11 +2204,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>23</v>
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2231,11 +2237,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>23</v>
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,14 +2336,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,14 +2402,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,14 +2435,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2445,14 +2451,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2462,14 +2468,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,11 +2501,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2561,14 +2567,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2643,31 +2649,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2676,31 +2682,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2709,28 +2715,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2808,31 +2814,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2848,24 +2854,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2891,14 +2897,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,11 +2963,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2973,28 +2979,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3006,31 +3012,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3079,7 +3085,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3093,10 +3099,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,11 +3128,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3155,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,7 +3210,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3221,7 +3227,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3244,7 +3250,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,14 +3260,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3270,7 +3276,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3287,11 +3293,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>23</v>
@@ -3303,14 +3309,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,11 +3392,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3409,24 +3415,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,31 +3441,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3475,13 +3481,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3489,10 +3495,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,28 +3507,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3574,7 +3580,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,11 +3590,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3600,28 +3606,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3633,31 +3639,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3673,7 +3679,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3683,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,28 +3705,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3732,31 +3738,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3772,7 +3778,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,7 +3821,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3838,24 +3844,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3871,24 +3877,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3951,10 +3957,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,11 +4019,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4069,24 +4075,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,31 +4101,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4151,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4300,7 +4306,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>252</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,31 +4365,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,31 +4398,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,31 +4431,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,31 +4464,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,31 +4497,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4524,7 +4530,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4537,18 +4543,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4570,18 +4576,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>276</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4603,18 +4609,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>100</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,31 +4629,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4656,28 +4662,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>23</v>
@@ -4689,28 +4695,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4722,28 +4728,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4755,28 +4761,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4795,24 +4801,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4821,31 +4827,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4854,28 +4860,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -4894,24 +4900,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4927,24 +4933,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4953,66 +4959,99 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>303</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>304</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>49</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>270</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6628.8699999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>303</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>304</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c t="s" r="Q111" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6701.4700000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
         <v>305</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>306</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>307</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5541,10 +5580,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -926,7 +926,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 9:51 PM</t>
+    <t>Thursday, 4 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -845,66 +851,72 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>49:0</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
-  </si>
-  <si>
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
@@ -926,7 +938,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:02 PM</t>
+    <t>Thursday, 4 September, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1777,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1775,14 +1787,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1815,7 +1827,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1831,7 +1843,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1864,21 +1876,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>23</v>
@@ -1890,20 +1902,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1914,7 +1926,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1930,7 +1942,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1947,7 +1959,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2062,7 +2074,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2084,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2105,7 +2117,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2128,7 +2140,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2161,7 +2173,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2178,7 +2190,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2194,7 +2206,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,11 +2249,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>23</v>
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2270,11 +2282,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2458,7 +2470,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2472,10 +2484,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2656,7 +2668,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2682,31 +2694,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,31 +2727,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,28 +2760,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2854,24 +2866,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2880,31 +2892,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,11 +3008,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3012,28 +3024,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3045,31 +3057,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3118,7 +3130,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3132,10 +3144,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3161,11 +3173,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,11 +3206,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,14 +3239,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,7 +3255,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3260,7 +3272,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3283,7 +3295,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,7 +3321,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3326,11 +3338,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3448,24 +3460,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,31 +3486,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3514,13 +3526,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3528,10 +3540,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,28 +3552,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3613,7 +3625,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3639,28 +3651,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3672,31 +3684,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3712,7 +3724,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3738,28 +3750,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3771,31 +3783,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3811,7 +3823,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,7 +3866,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3877,24 +3889,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3910,24 +3922,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3990,10 +4002,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,11 +4064,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4108,24 +4120,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,31 +4146,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4196,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4339,7 +4351,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>254</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,31 +4410,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,31 +4443,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4464,31 +4476,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4497,31 +4509,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,31 +4542,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,7 +4575,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4576,18 +4588,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4609,18 +4621,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>278</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4642,18 +4654,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>101</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,31 +4674,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,24 +4707,24 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4741,15 +4753,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4761,20 +4773,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4801,21 +4813,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4827,31 +4839,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,31 +4872,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,28 +4905,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>127</v>
+        <v>264</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4926,31 +4938,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4959,31 +4971,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4992,66 +5004,99 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>307</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>308</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>52</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>272</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6701.4700000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>305</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>306</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>307</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6791.4700000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>309</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>310</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>311</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5585,10 +5630,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:04 PM</t>
+    <t>Thursday, 4 September, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -365,9 +365,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -485,28 +482,31 @@
     <t>27.7200</t>
   </si>
   <si>
-    <t>FORADIL12 MG 60 CAPS</t>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
     <t>1:2</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
     <t>54.00</t>
@@ -2602,7 +2602,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2628,14 +2628,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2694,14 +2694,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2715,10 +2715,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2744,11 +2744,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2777,11 +2777,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>23</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2810,11 +2810,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2843,11 +2843,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>41</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2925,14 +2925,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,14 +2942,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2958,14 +2958,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2991,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3008,11 +3008,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3041,11 +3041,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3057,28 +3057,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3107,14 +3107,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3123,14 +3123,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3394,7 +3394,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -4002,10 +4002,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4351,7 +4351,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4632,7 +4632,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5066,7 +5066,7 @@
     </row>
     <row r="113" ht="24.75" customHeight="1">
       <c r="P113" s="13">
-        <v>6791.4700000000003</v>
+        <v>6733.3100000000004</v>
       </c>
       <c r="Q113" s="13"/>
     </row>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -362,9 +362,24 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>6:2</t>
+  </si>
+  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -485,9 +500,6 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>334.00</t>
   </si>
   <si>
@@ -803,12 +815,6 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -851,10 +857,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -938,7 +941,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:05 PM</t>
+    <t>Thursday, 4 September, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2612,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2678,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,14 +2697,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2715,10 +2718,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,31 +2730,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2793,28 +2796,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2859,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2876,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,31 +2895,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,31 +2928,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2982,7 +2985,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2991,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,14 +3110,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3144,10 +3147,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3156,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,14 +3176,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3222,14 +3225,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3272,14 +3275,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3288,7 +3291,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3305,11 +3308,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3321,14 +3324,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3338,14 +3341,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3354,7 +3357,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,14 +3423,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,14 +3440,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3486,31 +3489,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3519,7 +3522,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3532,18 +3535,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,31 +3555,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3585,28 +3588,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3654,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,11 +3671,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3684,28 +3687,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3717,31 +3720,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,28 +3786,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3816,31 +3819,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3869,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3915,31 +3918,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,31 +3951,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4002,10 +4005,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4047,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4146,31 +4149,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,31 +4182,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4252,7 +4255,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4278,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4377,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4397,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>256</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4417,7 +4420,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,31 +4446,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,7 +4503,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4595,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,7 +4611,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4625,14 +4628,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>120</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4658,14 +4661,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>281</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,7 +4677,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4691,14 +4694,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>103</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4714,7 +4717,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,14 +4727,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,11 +4760,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4773,14 +4776,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,11 +4859,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4872,14 +4875,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4912,7 +4915,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4929,7 +4932,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,14 +4941,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,11 +4958,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -4971,14 +4974,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,14 +4991,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5004,14 +5007,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5021,14 +5024,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5044,7 +5047,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,49 +5057,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>309</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>52</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>274</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6733.3100000000004</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>309</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c t="s" r="Q113" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6762.3100000000004</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>310</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
         <v>311</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>312</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5635,10 +5671,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -377,9 +377,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
     <t>334.00</t>
   </si>
   <si>
@@ -941,7 +941,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:06 PM</t>
+    <t>Thursday, 4 September, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2638,7 +2638,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2664,14 +2664,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2730,14 +2730,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2751,10 +2751,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>23</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2879,11 +2879,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>41</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>23</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2961,14 +2961,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,14 +2978,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2994,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3027,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,11 +3044,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3077,11 +3077,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3093,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3430,7 +3430,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -4038,10 +4038,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4387,7 +4387,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4668,7 +4668,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -401,9 +410,6 @@
     <t>111.8400</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>DOLO-D PLUS 20TAB</t>
   </si>
   <si>
@@ -725,6 +731,15 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -941,7 +956,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:07 PM</t>
+    <t>Thursday, 4 September, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2153,7 +2168,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2176,7 +2191,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2209,7 +2224,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2275,7 +2290,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,11 +2300,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -2301,14 +2316,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2341,7 +2356,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2358,7 +2373,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2374,7 +2389,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2424,7 +2439,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2440,7 +2455,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,14 +2465,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2487,10 +2502,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2539,7 +2554,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2572,7 +2587,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,7 +2597,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2605,7 +2620,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2704,7 +2719,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2751,10 +2766,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2770,24 +2785,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2829,28 +2844,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2935,24 +2950,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2961,31 +2976,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,11 +3092,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3213,10 +3228,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3242,11 +3257,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,11 +3290,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3324,7 +3339,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3341,7 +3356,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3364,7 +3379,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3390,7 +3405,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3407,11 +3422,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,14 +3488,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,11 +3521,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3529,24 +3544,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3555,7 +3570,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3568,18 +3583,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3595,13 +3610,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3609,10 +3624,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3621,28 +3636,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3694,7 +3709,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,11 +3719,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3720,28 +3735,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3753,31 +3768,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3819,28 +3834,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3852,31 +3867,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3892,7 +3907,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3918,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,7 +3950,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3958,24 +3973,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3991,24 +4006,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4071,10 +4086,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,11 +4148,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,15 +4210,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,31 +4263,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4288,7 +4303,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4321,7 +4336,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,11 +4379,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>23</v>
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,11 +4412,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>260</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4492,7 +4507,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4500,10 +4515,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>265</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,21 +4534,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>23</v>
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>124</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>282</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,7 +4725,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>287</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4783,7 +4798,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,11 +4841,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4892,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -4915,7 +4930,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4973,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,11 +5072,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,49 +5105,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>312</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>41</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>52</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>122</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>314</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>52</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>279</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6762.3100000000004</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>310</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>311</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>312</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6811.0500000000002</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>315</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>316</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>317</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5676,10 +5757,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -956,7 +956,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:10 PM</t>
+    <t>Thursday, 4 September, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
   </si>
   <si>
@@ -128,7 +140,7 @@
     <t>78.00</t>
   </si>
   <si>
-    <t>78.0000</t>
+    <t>90.4800</t>
   </si>
   <si>
     <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
@@ -236,9 +248,6 @@
     <t>1:7</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>7.9200</t>
   </si>
   <si>
@@ -512,6 +521,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -524,9 +542,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -872,7 +887,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -941,6 +959,9 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -953,10 +974,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>Thursday, 4 September, 2025 10:14 PM</t>
+    <t>Thursday, 4 September, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1680,7 +1698,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1706,14 +1724,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1779,7 +1797,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1795,7 +1813,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1845,7 +1863,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1871,14 +1889,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1904,14 +1922,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1920,31 +1938,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1953,31 +1971,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2026,7 +2044,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2059,7 +2077,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,11 +2087,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2085,7 +2103,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,7 +2186,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2201,7 +2219,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2224,7 +2242,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2257,7 +2275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2373,7 +2391,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2389,7 +2407,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2406,7 +2424,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2422,7 +2440,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2535,10 +2553,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2620,7 +2638,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,14 +2648,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2653,7 +2671,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2752,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,31 +2829,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2851,13 +2869,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2868,7 +2886,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2890,7 +2908,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2901,7 +2919,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2917,7 +2935,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2934,7 +2952,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +2978,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,31 +2994,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3009,31 +3027,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3099,7 +3117,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3115,7 +3133,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3148,7 +3166,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,11 +3176,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3198,7 +3216,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3214,7 +3232,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,14 +3242,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3247,7 +3265,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3264,7 +3282,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3280,7 +3298,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3294,10 +3312,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3412,7 +3430,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3429,7 +3447,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3445,7 +3463,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3577,24 +3595,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,28 +3654,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3676,7 +3694,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3690,10 +3708,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3702,31 +3720,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,7 +3760,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,31 +3786,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3841,13 +3859,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3858,7 +3876,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3874,24 +3892,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3940,13 +3958,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3957,7 +3975,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3983,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,18 +4030,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4072,24 +4090,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>152</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4152,10 +4170,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4270,24 +4288,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,31 +4347,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4369,7 +4387,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4402,7 +4420,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>265</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4573,7 +4591,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4581,10 +4599,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4600,24 +4618,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,31 +4644,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,31 +4677,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,31 +4710,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,31 +4743,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4765,24 +4783,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>287</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,31 +4809,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,31 +4842,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,31 +4875,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4890,31 +4908,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4956,31 +4974,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4989,31 +5007,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,31 +5040,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,31 +5073,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5088,31 +5106,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,31 +5139,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,66 +5172,165 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>317</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>318</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>56</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>158</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>319</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>45</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>56</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>125</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>320</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>293</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>56</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>284</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6811.0500000000002</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>315</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>316</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>317</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6935.5500000000002</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>321</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>322</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>323</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5767,10 +5884,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:15 PM</t>
+    <t>Thursday, 4 September, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -428,6 +428,24 @@
     <t>13.5000</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -663,9 +681,6 @@
   </si>
   <si>
     <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
   </si>
   <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
@@ -2902,13 +2917,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2935,7 +2950,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2952,7 +2967,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2968,13 +2983,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2985,7 +3000,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3011,11 +3026,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -3027,31 +3042,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3100,21 +3115,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3183,7 +3198,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,7 +3214,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,11 +3224,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3282,7 +3297,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3298,7 +3313,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3312,10 +3327,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3430,7 +3445,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3447,7 +3462,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3463,7 +3478,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3473,14 +3488,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,14 +3537,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3554,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3562,7 +3577,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,7 +3603,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,31 +3669,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,11 +3719,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,11 +3752,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3799,18 +3814,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,28 +3867,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,28 +3933,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3964,18 +3979,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4030,7 +4045,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4067,14 +4082,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4090,24 +4105,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4156,24 +4171,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4236,10 +4251,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,11 +4313,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4360,15 +4375,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,31 +4428,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4453,7 +4468,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4486,7 +4501,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,11 +4544,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,11 +4577,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>270</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4657,7 +4672,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4665,10 +4680,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>55</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4684,21 +4699,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4841,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>298</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4948,7 +4963,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,14 +4973,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5006,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5039,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>27</v>
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5072,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -5080,7 +5095,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5138,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>125</v>
+        <v>289</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>27</v>
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,14 +5171,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5204,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,14 +5237,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5270,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>27</v>
@@ -5271,14 +5286,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,49 +5303,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>45</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>56</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>125</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>298</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>56</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>289</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6935.5500000000002</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>321</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>322</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>323</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7099.5500000000002</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>326</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>327</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>328</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5899,10 +5980,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -989,7 +989,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:19 PM</t>
+    <t>Thursday, 4 September, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -200,705 +200,714 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>3:5</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFOTRIX 1 GM I.V. VIAL (U.S.P.23)</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS 20TAB</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>113.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TRESS HAIR OIL 250 ML</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>-6:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>560.0000</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>VITASTRESS 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8306:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>60:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
-  </si>
-  <si>
-    <t>BRIMOSALM EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFOTRIX 1 GM I.V. VIAL (U.S.P.23)</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>111.8400</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS 20TAB</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
-  </si>
-  <si>
-    <t>113.00</t>
-  </si>
-  <si>
-    <t>113.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PROXIMOL 0.4MG 40 TAB</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>QUADRIDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ROWACHOL 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>SILDAVA 100MG 12 TABLETS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>SULBIN 1.5GM VIAL</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TRESS HAIR OIL 250 ML</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCE  30 TAB</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
-  </si>
-  <si>
-    <t>-6:0</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>560.0000</t>
-  </si>
-  <si>
-    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>VITASTRESS 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8306:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>51:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>60:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -911,6 +920,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -971,7 +983,10 @@
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>54.0000</t>
   </si>
   <si>
     <t>محلول رينجر</t>
@@ -989,7 +1004,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:21 PM</t>
+    <t>Thursday, 4 September, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2074,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2069,14 +2084,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2102,11 +2117,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2118,7 +2133,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2151,7 +2166,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2168,11 +2183,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>27</v>
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2205,7 +2220,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2238,7 +2253,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2271,7 +2286,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2283,7 +2298,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2300,11 +2315,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>55</v>
@@ -2316,7 +2331,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2337,7 +2352,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2349,7 +2364,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>27</v>
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2399,11 +2414,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>27</v>
@@ -2415,7 +2430,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2432,11 +2447,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>27</v>
@@ -2448,7 +2463,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2498,11 +2513,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>55</v>
@@ -2514,7 +2529,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2531,11 +2546,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -2547,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2580,7 +2595,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2597,7 +2612,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2613,7 +2628,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2630,11 +2645,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2667,7 +2682,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2679,7 +2694,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2696,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2712,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2729,11 +2744,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2745,7 +2760,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2766,7 +2781,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2795,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2811,7 +2826,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2828,11 +2843,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2877,7 +2892,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2910,7 +2925,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2927,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2943,7 +2958,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2960,11 +2975,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2976,7 +2991,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2993,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -3009,7 +3024,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3026,11 +3041,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>27</v>
@@ -3042,7 +3057,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3059,11 +3074,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>45</v>
@@ -3075,7 +3090,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3096,7 +3111,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -3108,7 +3123,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3129,7 +3144,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3313,7 +3328,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3379,7 +3394,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3393,10 +3408,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3405,7 +3420,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3422,11 +3437,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3438,7 +3453,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3455,11 +3470,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3471,7 +3486,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3488,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3504,7 +3519,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3521,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3537,7 +3552,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3558,7 +3573,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3570,7 +3585,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3587,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3603,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3620,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3653,11 +3668,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3669,7 +3684,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3686,11 +3701,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3702,7 +3717,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3719,11 +3734,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3735,7 +3750,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3756,7 +3771,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3768,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3785,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3801,7 +3816,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3834,7 +3849,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3867,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3888,7 +3903,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3900,7 +3915,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3917,11 +3932,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3933,7 +3948,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3950,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3966,7 +3981,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3987,7 +4002,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3999,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4016,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -4032,7 +4047,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4049,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -4065,7 +4080,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4086,7 +4101,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4098,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4115,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4131,7 +4146,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4152,7 +4167,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4164,7 +4179,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4185,7 +4200,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>55</v>
@@ -4197,7 +4212,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4214,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4263,7 +4278,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4280,11 +4295,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4296,7 +4311,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4313,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4329,7 +4344,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4346,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4362,7 +4377,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4379,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4395,7 +4410,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4412,11 +4427,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4428,7 +4443,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4445,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4461,7 +4476,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4482,7 +4497,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4527,7 +4542,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4544,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4560,7 +4575,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4577,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4593,7 +4608,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4626,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4692,7 +4707,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4709,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>55</v>
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4775,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4808,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>34</v>
@@ -4824,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4841,11 +4856,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>55</v>
@@ -4857,7 +4872,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4874,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>45</v>
@@ -4890,7 +4905,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4923,7 +4938,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4940,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,7 +4971,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>109</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4989,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>27</v>
@@ -5022,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,11 +5054,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>27</v>
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5105,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>27</v>
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,7 +5153,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5154,7 +5169,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5171,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>34</v>
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5220,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5253,7 +5268,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5274,7 +5289,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>27</v>
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5307,7 +5322,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>55</v>
@@ -5319,7 +5334,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5336,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>27</v>
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5369,7 +5384,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5381,13 +5396,13 @@
     </row>
     <row r="121" ht="25.5" customHeight="1">
       <c r="P121" s="13">
-        <v>7099.5500000000002</v>
+        <v>7155.0500000000002</v>
       </c>
       <c r="Q121" s="13"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
       <c t="s" r="A122" s="14">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5395,13 +5410,13 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c t="s" r="G122" s="15">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="16"/>
       <c t="s" r="K122" s="17">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:22 PM</t>
+    <t>Thursday, 4 September, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -290,405 +290,414 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>CYSTONE 60 TAB</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS 20TAB</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>13.5000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KETOPREK 75 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>113.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>CYSTONE 60 TAB</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>94.0500</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>111.8400</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS 20TAB</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>13.5000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPIDEXONE 1MG/ML EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.5000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>E-ROSH ANTI-DANDRUFF SHAMPOO 200 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDROCORTISONE 1% OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KETOPREK 75 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LERGEBLOCK 1.5% EYE DROPS. 10 ML</t>
-  </si>
-  <si>
-    <t>113.00</t>
-  </si>
-  <si>
-    <t>113.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
     <t>69.00</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -863,9 +872,6 @@
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
-    <t>22:0</t>
-  </si>
-  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -905,9 +911,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1004,7 +1007,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:23 PM</t>
+    <t>Thursday, 4 September, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2421,7 +2424,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -3936,7 +3939,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3948,7 +3951,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3965,7 +3968,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4054,13 +4057,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4087,24 +4090,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4153,7 +4156,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4179,31 +4182,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,31 +4215,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4252,7 +4255,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,7 +4288,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4321,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4335,7 +4338,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4361,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4377,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4417,7 +4420,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4431,10 +4434,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,31 +4446,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,31 +4479,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4615,7 +4618,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4661,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>277</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4710,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,31 +4743,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,7 +4908,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,7 +4941,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4955,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>301</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,7 +4974,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4988,14 +4991,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5024,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>27</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,11 +5057,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>27</v>
@@ -5070,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5090,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>27</v>
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>27</v>
@@ -5136,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>319</v>
+        <v>93</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>27</v>
@@ -5169,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5209,7 +5212,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>31</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5255,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5271,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5288,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5308,7 +5311,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5322,10 +5325,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5374,7 +5377,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,49 +5387,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>331</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>302</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>56</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>293</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7155.0500000000002</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>331</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c t="s" r="Q121" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7210.0500000000002</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>332</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
         <v>333</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>334</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6005,10 +6041,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:29 PM</t>
+    <t>Thursday, 4 September, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>26.7300</t>
+  </si>
+  <si>
+    <t>BINO BABY CREAM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
@@ -2149,18 +2158,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2252,7 +2261,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2285,7 +2294,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2308,7 +2317,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2407,7 +2416,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2457,7 +2466,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2490,7 +2499,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2556,7 +2565,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2619,10 +2628,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2671,7 +2680,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2704,7 +2713,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2714,7 +2723,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2737,7 +2746,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>27</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2836,7 +2845,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2883,10 +2892,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2895,31 +2904,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2935,13 +2944,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2952,7 +2961,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2968,7 +2977,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2985,7 +2994,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3001,13 +3010,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3018,7 +3027,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3034,13 +3043,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3067,7 +3076,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3084,7 +3093,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3100,7 +3109,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3126,31 +3135,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,31 +3168,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3249,7 +3258,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3265,7 +3274,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3298,7 +3307,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3348,7 +3357,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3364,7 +3373,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3381,7 +3390,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3397,7 +3406,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3414,7 +3423,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>185</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3463,7 +3472,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3496,7 +3505,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3529,7 +3538,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3546,7 +3555,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3661,7 +3670,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3727,7 +3736,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3753,31 +3762,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,7 +3795,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3799,18 +3808,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,31 +3828,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3859,13 +3868,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3892,7 +3901,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3951,28 +3960,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3984,28 +3993,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4038,10 +4047,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4090,13 +4099,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4123,24 +4132,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4189,7 +4198,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4215,31 +4224,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4248,31 +4257,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4288,7 +4297,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4321,7 +4330,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4354,7 +4363,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4371,7 +4380,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4397,11 +4406,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4439,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4453,7 +4462,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4467,10 +4476,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,31 +4488,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,31 +4521,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4651,7 +4660,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>280</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,31 +4785,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,14 +4901,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,14 +4917,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4932,7 +4941,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,10 +4971,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,7 +4983,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4991,14 +5000,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5024,14 +5033,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,7 +5099,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5123,11 +5132,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>27</v>
@@ -5139,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5179,7 +5188,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>27</v>
@@ -5205,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,14 +5231,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5238,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5311,7 +5320,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5337,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,14 +5363,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,14 +5412,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,49 +5429,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>334</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>305</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>56</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>296</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7210.0500000000002</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>332</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>333</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>334</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q122" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7260.0500000000002</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>335</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>336</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>337</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6046,10 +6088,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 10:52 PM</t>
+    <t>Thursday, 4 September, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -851,6 +851,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1016,7 +1025,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:03 PM</t>
+    <t>Thursday, 4 September, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4759,7 +4768,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>283</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,31 +4827,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>96</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4974,7 +4983,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5004,10 +5013,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,7 +5025,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5033,14 +5042,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>305</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5066,14 +5075,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5108,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,14 +5124,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,7 +5141,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>27</v>
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5221,7 +5230,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>96</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>27</v>
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,14 +5273,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,14 +5306,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5322,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5339,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5353,7 +5362,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5400,10 +5409,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5438,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,49 +5471,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>308</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>56</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>299</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7260.0500000000002</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>335</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>336</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>337</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7326.0500000000002</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>338</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>339</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>340</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6093,10 +6135,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:04 PM</t>
+    <t>Thursday, 4 September, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-04_00-00.xlsx
+++ b/DaySale_2025-09-04_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
   </si>
   <si>
@@ -404,6 +413,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -548,6 +566,9 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUSAMIC 1% VISCOUS EYE DROPS 5 GM</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -641,6 +662,15 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>LUBRISTIRA 15ML EYE DROPS</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -1025,7 +1055,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Thursday, 4 September, 2025 11:12 PM</t>
+    <t>Thursday, 4 September, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1963,7 +1993,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1980,7 +2010,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1996,7 +2026,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2029,21 +2059,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>27</v>
@@ -2055,20 +2085,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2079,7 +2109,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2095,7 +2125,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2105,14 +2135,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2154,20 +2184,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2178,7 +2208,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2200,18 +2230,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2260,7 +2290,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2303,7 +2333,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2336,7 +2366,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2359,7 +2389,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2392,7 +2422,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2458,7 +2488,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2468,14 +2498,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2508,7 +2538,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2524,7 +2554,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2541,7 +2571,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2557,7 +2587,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2583,14 +2613,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2607,7 +2637,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2623,7 +2653,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,14 +2663,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2649,14 +2679,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2670,10 +2700,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2682,14 +2712,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2699,14 +2729,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2722,7 +2752,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2732,14 +2762,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2755,7 +2785,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2765,7 +2795,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2788,7 +2818,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2798,11 +2828,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>27</v>
@@ -2814,14 +2844,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s=